--- a/data/Historical Pitstops Grouped.xlsx
+++ b/data/Historical Pitstops Grouped.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\OneDrive\Documentos\2ºMIT\Visualización\Proyecto Final\app-data-visualization\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_FFC65FC0A3212FE1F7540BF0582A4EB360B4C00D" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9776D95C-4D50-4441-95AE-A524FB189E9B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$148</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -97,8 +106,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,11 +170,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -207,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,9 +256,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,6 +308,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,14 +501,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2011</v>
       </c>
@@ -474,10 +530,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>23.12214285714285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>23.122142857142851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -485,10 +541,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>23.83141666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>23.831416666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2011</v>
       </c>
@@ -499,7 +555,7 @@
         <v>27.28453846153846</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -507,10 +563,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>25.57208888888889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>25.572088888888889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -521,7 +577,7 @@
         <v>22.43175409836066</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -529,10 +585,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>23.27645283018868</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>23.276452830188681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -540,10 +596,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>22.63718000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>22.637180000000011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2011</v>
       </c>
@@ -554,7 +610,7 @@
         <v>23.3620625</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -562,10 +618,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>24.21924390243903</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>24.219243902439029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -573,10 +629,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>24.19257777777778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>24.192577777777782</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -587,7 +643,7 @@
         <v>24.35558974358975</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -598,7 +654,7 @@
         <v>23.56633333333334</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -609,7 +665,7 @@
         <v>24.62014814814815</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -617,10 +673,10 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>22.13540425531914</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>22.135404255319141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2012</v>
       </c>
@@ -628,10 +684,10 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>22.81811538461538</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>22.818115384615378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2012</v>
       </c>
@@ -639,10 +695,10 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>24.60368421052632</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>24.603684210526321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2012</v>
       </c>
@@ -653,7 +709,7 @@
         <v>23.37595555555556</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -661,10 +717,10 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>24.77274468085106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>24.772744680851059</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2012</v>
       </c>
@@ -672,10 +728,10 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>22.3135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>22.313500000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2012</v>
       </c>
@@ -686,7 +742,7 @@
         <v>22.31807407407408</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2012</v>
       </c>
@@ -694,10 +750,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>22.06093877551021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>22.060938775510209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2012</v>
       </c>
@@ -705,10 +761,10 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>23.4742962962963</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>23.474296296296298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2012</v>
       </c>
@@ -716,10 +772,10 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>22.84818367346939</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>22.848183673469389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2012</v>
       </c>
@@ -727,10 +783,10 @@
         <v>14</v>
       </c>
       <c r="C25">
-        <v>24.01581632653061</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>24.015816326530611</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2013</v>
       </c>
@@ -738,10 +794,10 @@
         <v>15</v>
       </c>
       <c r="C26">
-        <v>24.61123636363637</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>24.611236363636369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2013</v>
       </c>
@@ -752,7 +808,7 @@
         <v>22.95848275862069</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -760,10 +816,10 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>24.50004651162791</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>24.500046511627911</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2013</v>
       </c>
@@ -771,10 +827,10 @@
         <v>16</v>
       </c>
       <c r="C29">
-        <v>24.251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>24.251000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -782,10 +838,10 @@
         <v>17</v>
       </c>
       <c r="C30">
-        <v>24.98415094339622</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>24.984150943396219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2013</v>
       </c>
@@ -796,7 +852,7 @@
         <v>23.12419148936171</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2013</v>
       </c>
@@ -807,7 +863,7 @@
         <v>23.11369090909092</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2013</v>
       </c>
@@ -815,10 +871,10 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>22.78027659574468</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>22.780276595744681</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2013</v>
       </c>
@@ -826,10 +882,10 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>23.87926530612244</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>23.879265306122441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2013</v>
       </c>
@@ -837,10 +893,10 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>24.7092</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>24.709199999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2013</v>
       </c>
@@ -848,10 +904,10 @@
         <v>14</v>
       </c>
       <c r="C36">
-        <v>24.96498113207547</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>24.964981132075469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2014</v>
       </c>
@@ -859,10 +915,10 @@
         <v>15</v>
       </c>
       <c r="C37">
-        <v>25.82158823529412</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>25.821588235294119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2014</v>
       </c>
@@ -873,7 +929,7 @@
         <v>24.48178431372548</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2014</v>
       </c>
@@ -884,7 +940,7 @@
         <v>24.69527906976743</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2014</v>
       </c>
@@ -895,7 +951,7 @@
         <v>24.76317021276596</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2014</v>
       </c>
@@ -906,7 +962,7 @@
         <v>27.04677777777778</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2014</v>
       </c>
@@ -914,10 +970,10 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>24.46926315789474</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>24.469263157894741</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2014</v>
       </c>
@@ -925,10 +981,10 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>24.49655319148936</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>24.496553191489362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2014</v>
       </c>
@@ -939,7 +995,7 @@
         <v>24.25038</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2014</v>
       </c>
@@ -950,7 +1006,7 @@
         <v>26.63516666666667</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2014</v>
       </c>
@@ -958,10 +1014,10 @@
         <v>12</v>
       </c>
       <c r="C46">
-        <v>25.83038888888889</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>25.830388888888891</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2014</v>
       </c>
@@ -969,10 +1025,10 @@
         <v>14</v>
       </c>
       <c r="C47">
-        <v>25.28434693877552</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>25.284346938775521</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2015</v>
       </c>
@@ -980,10 +1036,10 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>25.07470588235294</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>25.074705882352941</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2015</v>
       </c>
@@ -991,10 +1047,10 @@
         <v>4</v>
       </c>
       <c r="C49">
-        <v>25.04040740740741</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>25.040407407407411</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2015</v>
       </c>
@@ -1002,10 +1058,10 @@
         <v>16</v>
       </c>
       <c r="C50">
-        <v>26.463</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>26.463000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2015</v>
       </c>
@@ -1013,10 +1069,10 @@
         <v>18</v>
       </c>
       <c r="C51">
-        <v>27.50584615384616</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>27.505846153846161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2015</v>
       </c>
@@ -1024,10 +1080,10 @@
         <v>7</v>
       </c>
       <c r="C52">
-        <v>25.12318867924528</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>25.123188679245281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2015</v>
       </c>
@@ -1038,7 +1094,7 @@
         <v>24.41027450980393</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2015</v>
       </c>
@@ -1046,10 +1102,10 @@
         <v>9</v>
       </c>
       <c r="C54">
-        <v>25.18783018867924</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>25.187830188679239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2015</v>
       </c>
@@ -1057,10 +1113,10 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>25.88981249999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>25.889812499999991</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2015</v>
       </c>
@@ -1071,7 +1127,7 @@
         <v>27.52612727272728</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2015</v>
       </c>
@@ -1082,7 +1138,7 @@
         <v>25.8198813559322</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2016</v>
       </c>
@@ -1090,10 +1146,10 @@
         <v>3</v>
       </c>
       <c r="C58">
-        <v>24.07821153846154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>24.078211538461542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2016</v>
       </c>
@@ -1104,7 +1160,7 @@
         <v>24.14314814814815</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2016</v>
       </c>
@@ -1115,7 +1171,7 @@
         <v>25.94164814814815</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2016</v>
       </c>
@@ -1126,7 +1182,7 @@
         <v>26.55574468085106</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2016</v>
       </c>
@@ -1134,10 +1190,10 @@
         <v>7</v>
       </c>
       <c r="C62">
-        <v>24.27864150943397</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>24.278641509433971</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2016</v>
       </c>
@@ -1145,10 +1201,10 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>23.60159574468084</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>23.601595744680839</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2016</v>
       </c>
@@ -1156,10 +1212,10 @@
         <v>9</v>
       </c>
       <c r="C64">
-        <v>24.91879120879121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>24.918791208791209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2016</v>
       </c>
@@ -1170,7 +1226,7 @@
         <v>24.78120754716981</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2016</v>
       </c>
@@ -1181,7 +1237,7 @@
         <v>25.81174468085106</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2016</v>
       </c>
@@ -1192,7 +1248,7 @@
         <v>25.04999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2016</v>
       </c>
@@ -1200,10 +1256,10 @@
         <v>14</v>
       </c>
       <c r="C68">
-        <v>24.28605454545455</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>24.286054545454551</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2017</v>
       </c>
@@ -1214,7 +1270,7 @@
         <v>23.7364</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2017</v>
       </c>
@@ -1222,10 +1278,10 @@
         <v>4</v>
       </c>
       <c r="C70">
-        <v>24.28777966101695</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>24.287779661016948</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2017</v>
       </c>
@@ -1236,7 +1292,7 @@
         <v>25.24897959183674</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2017</v>
       </c>
@@ -1244,10 +1300,10 @@
         <v>7</v>
       </c>
       <c r="C72">
-        <v>24.83080434782608</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>24.830804347826081</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2017</v>
       </c>
@@ -1255,10 +1311,10 @@
         <v>8</v>
       </c>
       <c r="C73">
-        <v>24.1545306122449</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>24.154530612244901</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2017</v>
       </c>
@@ -1266,10 +1322,10 @@
         <v>9</v>
       </c>
       <c r="C74">
-        <v>24.33315384615385</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>24.333153846153849</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2017</v>
       </c>
@@ -1277,10 +1333,10 @@
         <v>10</v>
       </c>
       <c r="C75">
-        <v>24.17187301587302</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>24.171873015873022</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2017</v>
       </c>
@@ -1288,10 +1344,10 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>26.56878431372549</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>26.568784313725491</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2017</v>
       </c>
@@ -1299,10 +1355,10 @@
         <v>12</v>
       </c>
       <c r="C77">
-        <v>24.19055882352941</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>24.190558823529411</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2017</v>
       </c>
@@ -1310,10 +1366,10 @@
         <v>14</v>
       </c>
       <c r="C78">
-        <v>24.03806779661017</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>24.038067796610171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2018</v>
       </c>
@@ -1324,7 +1380,7 @@
         <v>24.81369230769231</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2018</v>
       </c>
@@ -1332,10 +1388,10 @@
         <v>4</v>
       </c>
       <c r="C80">
-        <v>25.17796153846155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>25.177961538461549</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2018</v>
       </c>
@@ -1343,10 +1399,10 @@
         <v>19</v>
       </c>
       <c r="C81">
-        <v>25.13563461538462</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>25.135634615384621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2018</v>
       </c>
@@ -1354,10 +1410,10 @@
         <v>7</v>
       </c>
       <c r="C82">
-        <v>25.66705660377358</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>25.667056603773581</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2018</v>
       </c>
@@ -1365,10 +1421,10 @@
         <v>8</v>
       </c>
       <c r="C83">
-        <v>23.69613207547169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>23.696132075471692</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2018</v>
       </c>
@@ -1376,10 +1432,10 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>23.77839130434783</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>23.778391304347831</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2018</v>
       </c>
@@ -1387,10 +1443,10 @@
         <v>10</v>
       </c>
       <c r="C85">
-        <v>24.42139583333333</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>24.421395833333332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2018</v>
       </c>
@@ -1398,10 +1454,10 @@
         <v>11</v>
       </c>
       <c r="C86">
-        <v>25.51334042553191</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>25.513340425531911</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2018</v>
       </c>
@@ -1409,10 +1465,10 @@
         <v>12</v>
       </c>
       <c r="C87">
-        <v>24.36397959183673</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>24.363979591836731</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2018</v>
       </c>
@@ -1423,7 +1479,7 @@
         <v>24.91454098360656</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2019</v>
       </c>
@@ -1431,10 +1487,10 @@
         <v>20</v>
       </c>
       <c r="C89">
-        <v>26.19827586206897</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>26.198275862068972</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2019</v>
       </c>
@@ -1442,10 +1498,10 @@
         <v>3</v>
       </c>
       <c r="C90">
-        <v>24.82214516129031</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>24.822145161290312</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2019</v>
       </c>
@@ -1453,10 +1509,10 @@
         <v>19</v>
       </c>
       <c r="C91">
-        <v>25.01238888888889</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>25.012388888888889</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2019</v>
       </c>
@@ -1467,7 +1523,7 @@
         <v>26.69112500000001</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2019</v>
       </c>
@@ -1478,7 +1534,7 @@
         <v>24.14846551724138</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2019</v>
       </c>
@@ -1486,10 +1542,10 @@
         <v>21</v>
       </c>
       <c r="C94">
-        <v>25.58778947368421</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>25.587789473684211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2019</v>
       </c>
@@ -1497,10 +1553,10 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>24.85866233766233</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>24.858662337662331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2019</v>
       </c>
@@ -1508,10 +1564,10 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>25.08683333333333</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>25.086833333333331</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2019</v>
       </c>
@@ -1519,10 +1575,10 @@
         <v>12</v>
       </c>
       <c r="C97">
-        <v>25.76783870967743</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>25.767838709677431</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2019</v>
       </c>
@@ -1530,10 +1586,10 @@
         <v>14</v>
       </c>
       <c r="C98">
-        <v>24.94388333333333</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>24.943883333333329</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2020</v>
       </c>
@@ -1541,10 +1597,10 @@
         <v>20</v>
       </c>
       <c r="C99">
-        <v>25.94227906976744</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>25.942279069767441</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2020</v>
       </c>
@@ -1552,10 +1608,10 @@
         <v>22</v>
       </c>
       <c r="C100">
-        <v>25.26004651162791</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>25.260046511627909</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2020</v>
       </c>
@@ -1563,10 +1619,10 @@
         <v>3</v>
       </c>
       <c r="C101">
-        <v>25.77911904761905</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>25.779119047619051</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2020</v>
       </c>
@@ -1574,10 +1630,10 @@
         <v>19</v>
       </c>
       <c r="C102">
-        <v>26.90028205128205</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>26.900282051282051</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2020</v>
       </c>
@@ -1588,7 +1644,7 @@
         <v>25.6164347826087</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2020</v>
       </c>
@@ -1596,10 +1652,10 @@
         <v>8</v>
       </c>
       <c r="C104">
-        <v>24.97203333333332</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>24.972033333333322</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2020</v>
       </c>
@@ -1610,7 +1666,7 @@
         <v>25.78435897435898</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2020</v>
       </c>
@@ -1618,10 +1674,10 @@
         <v>9</v>
       </c>
       <c r="C106">
-        <v>24.71146808510639</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>24.711468085106389</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2020</v>
       </c>
@@ -1629,10 +1685,10 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>24.7938918918919</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>24.793891891891899</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2020</v>
       </c>
@@ -1640,10 +1696,10 @@
         <v>14</v>
       </c>
       <c r="C108">
-        <v>25.64408333333333</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>25.644083333333331</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2021</v>
       </c>
@@ -1654,7 +1710,7 @@
         <v>25.56699999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2021</v>
       </c>
@@ -1662,10 +1718,10 @@
         <v>22</v>
       </c>
       <c r="C110">
-        <v>25.35429787234043</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>25.354297872340432</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2021</v>
       </c>
@@ -1676,7 +1732,7 @@
         <v>25.45075555555556</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2021</v>
       </c>
@@ -1684,10 +1740,10 @@
         <v>24</v>
       </c>
       <c r="C112">
-        <v>25.0285</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>25.028500000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2021</v>
       </c>
@@ -1695,10 +1751,10 @@
         <v>3</v>
       </c>
       <c r="C113">
-        <v>24.20364583333333</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>24.203645833333329</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2021</v>
       </c>
@@ -1706,10 +1762,10 @@
         <v>19</v>
       </c>
       <c r="C114">
-        <v>25.93108163265307</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>25.931081632653068</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2021</v>
       </c>
@@ -1717,10 +1773,10 @@
         <v>7</v>
       </c>
       <c r="C115">
-        <v>24.96232075471698</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>24.962320754716981</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2021</v>
       </c>
@@ -1728,10 +1784,10 @@
         <v>8</v>
       </c>
       <c r="C116">
-        <v>24.02377966101695</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>24.023779661016949</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2021</v>
       </c>
@@ -1739,10 +1795,10 @@
         <v>9</v>
       </c>
       <c r="C117">
-        <v>23.65055</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>23.650549999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2021</v>
       </c>
@@ -1750,10 +1806,10 @@
         <v>14</v>
       </c>
       <c r="C118">
-        <v>25.47315094339623</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>25.473150943396231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2022</v>
       </c>
@@ -1764,7 +1820,7 @@
         <v>25.53491836734694</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2022</v>
       </c>
@@ -1772,10 +1828,10 @@
         <v>22</v>
       </c>
       <c r="C120">
-        <v>25.17928571428571</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>25.179285714285712</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2022</v>
       </c>
@@ -1786,7 +1842,7 @@
         <v>24.31851020408163</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2022</v>
       </c>
@@ -1794,10 +1850,10 @@
         <v>24</v>
       </c>
       <c r="C122">
-        <v>24.29413461538462</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>24.294134615384621</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2022</v>
       </c>
@@ -1805,10 +1861,10 @@
         <v>3</v>
       </c>
       <c r="C123">
-        <v>24.96121428571429</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>24.961214285714291</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2022</v>
       </c>
@@ -1816,10 +1872,10 @@
         <v>19</v>
       </c>
       <c r="C124">
-        <v>26.6353559322034</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>26.635355932203399</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2022</v>
       </c>
@@ -1827,10 +1883,10 @@
         <v>7</v>
       </c>
       <c r="C125">
-        <v>24.83180769230768</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>24.831807692307681</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2022</v>
       </c>
@@ -1838,10 +1894,10 @@
         <v>8</v>
       </c>
       <c r="C126">
-        <v>25.10610344827587</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>25.106103448275871</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2022</v>
       </c>
@@ -1852,7 +1908,7 @@
         <v>24.45571212121212</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2022</v>
       </c>
@@ -1863,7 +1919,7 @@
         <v>25.01198484848484</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2023</v>
       </c>
@@ -1871,10 +1927,10 @@
         <v>20</v>
       </c>
       <c r="C129">
-        <v>25.79394117647058</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>25.793941176470579</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2023</v>
       </c>
@@ -1882,10 +1938,10 @@
         <v>22</v>
       </c>
       <c r="C130">
-        <v>24.54889999999999</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>24.548899999999989</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2023</v>
       </c>
@@ -1893,10 +1949,10 @@
         <v>23</v>
       </c>
       <c r="C131">
-        <v>24.30267272727274</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>24.302672727272739</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2023</v>
       </c>
@@ -1904,10 +1960,10 @@
         <v>24</v>
       </c>
       <c r="C132">
-        <v>24.21278571428572</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>24.212785714285719</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2023</v>
       </c>
@@ -1915,10 +1971,10 @@
         <v>3</v>
       </c>
       <c r="C133">
-        <v>23.60461224489797</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>23.604612244897972</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2023</v>
       </c>
@@ -1929,7 +1985,7 @@
         <v>25.54877777777779</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2023</v>
       </c>
@@ -1940,7 +1996,7 @@
         <v>24.93956603773584</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2023</v>
       </c>
@@ -1948,10 +2004,10 @@
         <v>8</v>
       </c>
       <c r="C136">
-        <v>23.77721052631579</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>23.777210526315791</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2023</v>
       </c>
@@ -1959,10 +2015,10 @@
         <v>9</v>
       </c>
       <c r="C137">
-        <v>23.71645454545454</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>23.716454545454539</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2023</v>
       </c>
@@ -1973,7 +2029,7 @@
         <v>26.09949152542373</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2024</v>
       </c>
@@ -1981,10 +2037,10 @@
         <v>23</v>
       </c>
       <c r="C139">
-        <v>24.80456249999999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>24.804562499999989</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2024</v>
       </c>
@@ -1992,10 +2048,10 @@
         <v>24</v>
       </c>
       <c r="C140">
-        <v>24.19914814814815</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>24.199148148148151</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2024</v>
       </c>
@@ -2003,10 +2059,10 @@
         <v>3</v>
       </c>
       <c r="C141">
-        <v>24.34666037735849</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>24.346660377358489</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2024</v>
       </c>
@@ -2014,10 +2070,10 @@
         <v>19</v>
       </c>
       <c r="C142">
-        <v>25.69481666666666</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>25.694816666666661</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2024</v>
       </c>
@@ -2025,10 +2081,10 @@
         <v>7</v>
       </c>
       <c r="C143">
-        <v>23.51570212765957</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>23.515702127659569</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2024</v>
       </c>
@@ -2036,10 +2092,10 @@
         <v>8</v>
       </c>
       <c r="C144">
-        <v>24.04154901960784</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>24.041549019607839</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2024</v>
       </c>
@@ -2047,10 +2103,10 @@
         <v>25</v>
       </c>
       <c r="C145">
-        <v>24.08289795918368</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>24.082897959183679</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2024</v>
       </c>
@@ -2058,10 +2114,10 @@
         <v>9</v>
       </c>
       <c r="C146">
-        <v>24.31881481481482</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>24.318814814814822</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2024</v>
       </c>
@@ -2072,7 +2128,7 @@
         <v>25.46342857142858</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2024</v>
       </c>
@@ -2084,6 +2140,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B148" xr:uid="{AFF2841C-14DF-422B-B279-1D8879A9E7F5}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Sauber"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>